--- a/商品.xlsx
+++ b/商品.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\code\jdpage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="7665"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +25,9 @@
     <t>商品品牌</t>
   </si>
   <si>
+    <t>商品价格</t>
+  </si>
+  <si>
     <t>三岛 盖饭汁 250g</t>
   </si>
   <si>
@@ -709,20 +707,20 @@
   </si>
   <si>
     <t>紫林 5度酿造白醋 1.9L</t>
-  </si>
-  <si>
-    <t>商品价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,22 +729,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -754,9 +1075,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,17 +1337,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1042,19 +1649,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.375" customWidth="1"/>
@@ -1062,7 +1669,7 @@
     <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,2387 +1680,2387 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>1225982</v>
+        <v>100011995276</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>1231779</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1231783</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>100002671132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>1205746</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1788575</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>1806900</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>4517050</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>6519688</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>1806917</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>1205747</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>100001410228</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>8157628</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>4517058</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>1205745</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>1122772</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>5866512</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>5866532</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>5866514</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>1226058</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>1572632</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>3609212</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>4258041</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>1226046</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>1226047</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>1226060</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>3609208</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>4258023</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>4885266</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>5199924</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>1745163</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>1806889</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>1806892</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>1806894</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>4885254</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>1806893</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>2306568</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>3180159</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>3609196</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>1806879</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>1806897</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>100000221710</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>100001566210</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>100001566224</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>1226044</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>1226048</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>1226056</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>1226063</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>1226070</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>100000086869</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>100001949232</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>100001949234</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>100001211267</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>100001566208</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>8361517</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>3180145</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>4885268</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>1226050</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>1572676</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>1572680</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>100003206443</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>1572688</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>100005226376</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>100003206457</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>1809539</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>1809541</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>3565673</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>3965156</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>1809543</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>1809540</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>1809546</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>1809542</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>3565689</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>2412726</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>2412706</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>2412728</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>2413587</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>2413595</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>2477608</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>100000799915</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>100000799919</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>100000799925</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>100000951036</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>100000799917</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>100000799945</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>1302740</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>1302748</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>1302758</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>1302763</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>4738546</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>4613246</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>8157610</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>8369735</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>4020855</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>4556629</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>4613226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>4613230</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>8369871</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>100003350654</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>100000671607</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>1302737</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>1302761</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>8157694</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>8369767</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>8369815</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>1302725</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>100003350652</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>1302734</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>1302741</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>1302743</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>1302757</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>1302762</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>1441044</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>100003350638</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>1741996</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>4521568</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>1741977</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>1741983</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>1741984</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>1741998</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>1741972</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>1741974</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>1741980</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>1741955</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>1741991</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>5767031</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>1184597</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>3353042</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>4876223</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>1184613</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>1303104</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>3740193</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>4176160</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>4876267</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>5255109</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>838553</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>838573</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>838576</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>838589</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>838602</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>8506285</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>838546</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>5316790</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>5404860</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>4176162</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>1741907</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>7416290</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>2047130</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>3353034</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>4176098</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>4876225</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>8293644</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>838571</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>838592</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>2047126</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>2047135</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>100000428821</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>1303126</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>100000390426</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>7630291</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>8293660</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>838543</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>838547</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>838548</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>838561</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>838600</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>8506303</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>4176118</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>4876235</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>5255111</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>1303111</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>838598</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>8506301</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>5404862</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>1225984</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>1205753</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>1225986</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>100000268679</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>1225985</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>100000490861</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>1699211</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>1699199</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>7801384</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>8015031</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>100001106027</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>4797882</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>1990544</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>4410276</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>4410298</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>4797878</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>858414</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>858416</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>1990525</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>100003350636</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>100003350656</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>100000483552</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>100000483534</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>100001106029</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>858418</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>1644361</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>3708971</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>1809525</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>1809551</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>7958291</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>2804705</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>100004941144</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>100001410214</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>1644334</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>100001106223</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>100001410216</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>1644330</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>1644335</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>1644337</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>1644340</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>1644329</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>100004941130</v>
       </c>
       <c r="B217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C217" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>